--- a/src/main/resources/word/temp_出入库明细表.xlsx
+++ b/src/main/resources/word/temp_出入库明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="10640"/>
+    <workbookView windowWidth="18020" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="0602HOMETECH" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>广 东 省 新 立 电 子 信 息 进 出 口 有 限 公 司</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>{{totalPackageQuantity}}</t>
+  </si>
+  <si>
+    <t>{{$fe:imgs t.image}}</t>
   </si>
   <si>
     <t>{{$fe:items t.goodName</t>
@@ -149,20 +152,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="179" formatCode="mmm\ dd\,\ yy"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="182" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="mm/dd/yy_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="mm/dd/yy_)"/>
-    <numFmt numFmtId="180" formatCode="mmm\ dd\,\ yy"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="186" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -211,6 +214,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
@@ -218,27 +253,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -252,90 +342,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
+      <i/>
+      <sz val="16"/>
+      <name val="Helv"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -345,9 +355,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -359,23 +368,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <name val="Helv"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -428,19 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,19 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,13 +491,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,43 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,19 +674,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
         <color indexed="22"/>
       </bottom>
       <diagonal/>
@@ -692,8 +692,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,22 +740,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="22"/>
       </bottom>
       <diagonal/>
@@ -769,6 +763,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="62"/>
       </top>
@@ -782,197 +785,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="24" fillId="18" borderId="0">
+    <xf numFmtId="49" fontId="21" fillId="18" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="18" borderId="0">
+    <xf numFmtId="49" fontId="31" fillId="18" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="18" borderId="0">
+    <xf numFmtId="49" fontId="21" fillId="18" borderId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="18" borderId="0">
+    <xf numFmtId="49" fontId="21" fillId="18" borderId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="18" borderId="0">
+    <xf numFmtId="49" fontId="29" fillId="18" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="18" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="18" borderId="0">
+    <xf numFmtId="49" fontId="21" fillId="18" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,35 +1008,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,7 +1046,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,23 +1059,23 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1080,17 +1083,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1099,52 +1102,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1550,8 +1553,8 @@
   <sheetPr/>
   <dimension ref="A2:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
@@ -1597,16 +1600,16 @@
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="41" t="s">
@@ -1859,7 +1862,7 @@
       <c r="A16" s="41"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
       <c r="G16" s="62"/>
@@ -1937,17 +1940,17 @@
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="41" t="s">
@@ -2050,7 +2053,7 @@
       <c r="C26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="45"/>
@@ -2072,7 +2075,7 @@
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="54"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="45"/>
       <c r="F27" s="43"/>
       <c r="G27" s="42"/>
@@ -2183,7 +2186,7 @@
       <c r="B32" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="55"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="18" t="s">
         <v>21</v>
       </c>
@@ -2205,8 +2208,37 @@
     <row r="33" spans="5:5">
       <c r="E33" s="66"/>
     </row>
-    <row r="39" spans="4:11">
-      <c r="D39" s="42"/>
+    <row r="35" ht="172" customHeight="1" spans="1:4">
+      <c r="A35" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="42"/>
@@ -2276,15 +2308,15 @@
       <c r="C2" s="17"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" ht="55" spans="1:4">
+    <row r="3" ht="22" spans="1:4">
       <c r="A3" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>12</v>
@@ -2577,20 +2609,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.75" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="13.75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2601,44 +2633,44 @@
     <row r="6" ht="13.75"/>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" ht="13.75" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="13.75"/>
     <row r="14" ht="13.75" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="13.75"/>
     <row r="17" ht="13.75" spans="3:3">
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="14" spans="3:3">
@@ -2646,7 +2678,7 @@
     </row>
     <row r="26" ht="13.75" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
